--- a/app/data/static/samples/inputs/by_department/mascarpone/План по варкам маскарпоне 3.xlsx
+++ b/app/data/static/samples/inputs/by_department/mascarpone/План по варкам маскарпоне 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63EA7B4-2739-EF4D-9523-077522E791F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350B598-423E-BC46-AA6E-1A69085EB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,16 @@
   <definedNames>
     <definedName name="Water_SKU">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2413,28 +2422,31 @@
     <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2442,9 +2454,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -45128,10 +45137,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>154</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -45177,8 +45186,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="27" t="s">
         <v>175</v>
       </c>
@@ -45202,8 +45211,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="27" t="s">
         <v>175</v>
       </c>
@@ -45227,8 +45236,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="27" t="s">
         <v>173</v>
       </c>
@@ -45252,8 +45261,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="27" t="s">
         <v>177</v>
       </c>
@@ -45277,8 +45286,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="27" t="s">
         <v>662</v>
       </c>
@@ -45302,10 +45311,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -45348,8 +45357,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="27" t="s">
         <v>179</v>
       </c>
@@ -45373,10 +45382,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -45419,8 +45428,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="29" t="s">
         <v>662</v>
       </c>
@@ -45444,8 +45453,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="29" t="s">
         <v>173</v>
       </c>
@@ -45469,10 +45478,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>668</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -45515,10 +45524,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="54" t="s">
         <v>670</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="57" t="s">
         <v>668</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -45561,8 +45570,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="30" t="s">
         <v>175</v>
       </c>
@@ -45586,8 +45595,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="30" t="s">
         <v>182</v>
       </c>
@@ -45611,10 +45620,10 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="57" t="s">
         <v>668</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -45657,8 +45666,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
@@ -45682,10 +45691,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="54" t="s">
         <v>673</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="56" t="s">
         <v>674</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -45728,10 +45737,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="57" t="s">
         <v>668</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -45774,8 +45783,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="30" t="s">
         <v>174</v>
       </c>
@@ -45800,12 +45809,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B31"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="B34:B35"/>
@@ -45816,6 +45819,12 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -45831,7 +45840,7 @@
   <dimension ref="A1:AMK409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45857,7 +45866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>677</v>
       </c>
       <c r="B1" s="60" t="s">
@@ -45881,17 +45890,17 @@
       <c r="H1" s="60" t="s">
         <v>683</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>684</v>
       </c>
       <c r="K1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59"/>
@@ -45902,8 +45911,8 @@
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="12" t="s">
         <v>685</v>
       </c>
@@ -46241,11 +46250,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="42">
-        <f>IF(E8="","",VLOOKUP(E8, 'SKU заквасочник'!$A$1:$Z$80, IF(D8="-", 11, IF(D8="", 11,  MATCH(D8&amp;"", 'SKU заквасочник'!$A$1:$Z$1, 0))), 0))</f>
         <v>255</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>307</v>
@@ -46321,7 +46329,7 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1890</v>
+        <v>9450</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -57526,11 +57534,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -57539,6 +57542,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3 B8:B11 B5 B20 B22:B166">
     <cfRule type="expression" dxfId="228" priority="164">
